--- a/classification/droptc/sentence/neo-bert/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/67351593/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996877908706665</v>
+        <v>0.9985320568084717</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998492002487183</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998176693916321</v>
+        <v>0.5468692779541016</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998052716255188</v>
+        <v>0.9714689254760742</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999353885650635</v>
+        <v>0.9999189376831055</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999991774559021</v>
+        <v>0.9875035881996155</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9543548226356506</v>
+        <v>0.9997069239616394</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.9999046325683594</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9991714954376221</v>
+        <v>0.9997069239616394</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3391766250133514</v>
+        <v>0.9975413084030151</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9984945058822632</v>
+        <v>0.9998859167098999</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999922513961792</v>
+        <v>0.9928402900695801</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999994158744812</v>
+        <v>0.9985271692276001</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9986985921859741</v>
+        <v>0.9873007535934448</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9678485989570618</v>
+        <v>0.9895087480545044</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999547004699707</v>
+        <v>0.999047577381134</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5862888693809509</v>
+        <v>0.9954867959022522</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9956464171409607</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999939203262329</v>
+        <v>0.9681803584098816</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.994141161441803</v>
+        <v>0.9999327659606934</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999256134033203</v>
+        <v>0.9995529055595398</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6431375741958618</v>
+        <v>0.9999247789382935</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9986380934715271</v>
+        <v>0.999948263168335</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999845027923584</v>
+        <v>0.7003096342086792</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99978107213974</v>
+        <v>0.997391939163208</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9995810389518738</v>
+        <v>0.9998476505279541</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9999557733535767</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999874830245972</v>
+        <v>0.9998664855957031</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999523162841797</v>
+        <v>0.9998981952667236</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999971389770508</v>
+        <v>0.9998346567153931</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999675750732422</v>
+        <v>0.999629020690918</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999892711639404</v>
+        <v>0.9988797307014465</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7828096151351929</v>
+        <v>0.8998580574989319</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9996715784072876</v>
+        <v>0.9994254112243652</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9998140931129456</v>
+        <v>0.9989606142044067</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9997963309288025</v>
+        <v>0.9999164342880249</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9999916553497314</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9999926090240479</v>
+        <v>0.9088683724403381</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9999213218688965</v>
+        <v>0.9534162282943726</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9994319081306458</v>
+        <v>0.9998924732208252</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9995450377464294</v>
+        <v>0.9318980574607849</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999920129776001</v>
+        <v>0.9941844344139099</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9993323683738708</v>
+        <v>0.9984732270240784</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999774694442749</v>
+        <v>0.9994342923164368</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9999860525131226</v>
+        <v>0.94266676902771</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9945394396781921</v>
+        <v>0.4992773234844208</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.999136745929718</v>
+        <v>0.9950481057167053</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999929666519165</v>
+        <v>0.9999414682388306</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.99261873960495</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9999359846115112</v>
+        <v>0.6020259857177734</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.999372661113739</v>
+        <v>0.9992212057113647</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999902248382568</v>
+        <v>0.99261873960495</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999372661113739</v>
+        <v>0.9966956377029419</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9999936819076538</v>
+        <v>0.9999794960021973</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9993464350700378</v>
+        <v>0.9999728202819824</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9998059868812561</v>
+        <v>0.9999144077301025</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9977877140045166</v>
+        <v>0.9997089505195618</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9999796152114868</v>
+        <v>0.9993926286697388</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9999955892562866</v>
+        <v>0.9986721277236938</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9993243217468262</v>
+        <v>0.9971060156822205</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9998899698257446</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9974610805511475</v>
+        <v>0.998985230922699</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9998916387557983</v>
+        <v>0.9094697833061218</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9999793767929077</v>
+        <v>0.9996306896209717</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9995347261428833</v>
+        <v>0.9996306896209717</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9999775886535645</v>
+        <v>0.9979617595672607</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999828338623047</v>
+        <v>0.9996306896209717</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9999147653579712</v>
+        <v>0.9971388578414917</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999980926513672</v>
+        <v>0.9987906813621521</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9784454107284546</v>
+        <v>0.9998350143432617</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9998099207878113</v>
+        <v>0.9993719458580017</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999912977218628</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9989973902702332</v>
+        <v>0.9941143393516541</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9995469450950623</v>
+        <v>0.9998971223831177</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9998949766159058</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9995425939559937</v>
+        <v>0.9998044371604919</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999841451644897</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9956700801849365</v>
+        <v>0.9998290538787842</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9987492561340332</v>
+        <v>0.9992726445198059</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.9996302127838135</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9999911785125732</v>
+        <v>0.9992726445198059</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.9997150301933289</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.999980092048645</v>
+        <v>0.9997150301933289</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9999885559082031</v>
+        <v>0.9999459981918335</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9999780654907227</v>
+        <v>0.9990608096122742</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999536275863647</v>
+        <v>0.9879855513572693</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9997678399085999</v>
+        <v>0.9995449185371399</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9488804340362549</v>
+        <v>0.9995031356811523</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5168518424034119</v>
+        <v>0.9998753070831299</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9998542070388794</v>
+        <v>0.9998733997344971</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9999920129776001</v>
+        <v>0.9998717308044434</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9996877908706665</v>
+        <v>0.9998281002044678</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9998218417167664</v>
+        <v>0.9998281002044678</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9999179840087891</v>
+        <v>0.9997839331626892</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9727737903594971</v>
+        <v>0.9973716735839844</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9991775155067444</v>
+        <v>0.9873654842376709</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9995831847190857</v>
+        <v>0.9998918771743774</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.6460054516792297</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999943971633911</v>
+        <v>0.9993594288825989</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9998812675476074</v>
+        <v>0.9947932362556458</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.903739333152771</v>
+        <v>0.7564486265182495</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9987280964851379</v>
+        <v>0.567838728427887</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.982579231262207</v>
+        <v>0.9981709718704224</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9999816417694092</v>
+        <v>0.9997598528862</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7357508540153503</v>
+        <v>0.9997605681419373</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9999946355819702</v>
+        <v>0.9996423721313477</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4200183749198914</v>
+        <v>0.9987972974777222</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9994014501571655</v>
+        <v>0.9998670816421509</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9999874830245972</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9997606873512268</v>
+        <v>0.9992961883544922</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9995236396789551</v>
+        <v>0.9990304708480835</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9999555349349976</v>
+        <v>0.9974572062492371</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9999939203262329</v>
+        <v>0.9992645382881165</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9719889760017395</v>
+        <v>0.9982682466506958</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9999960660934448</v>
+        <v>0.9988062381744385</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9999586343765259</v>
+        <v>0.9996324777603149</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9998552799224854</v>
+        <v>0.6345758438110352</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.8538416028022766</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9999551773071289</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999915361404419</v>
+        <v>0.9980257749557495</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9993423819541931</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9974332451820374</v>
+        <v>0.9980257749557495</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4468926787376404</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.994050920009613</v>
+        <v>0.9980257749557495</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9999897480010986</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6377789974212646</v>
+        <v>0.7848544716835022</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6122816205024719</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9987788796424866</v>
+        <v>0.9775863885879517</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9993464350700378</v>
+        <v>0.99659663438797</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9997619986534119</v>
+        <v>0.9999711513519287</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9999899864196777</v>
+        <v>0.7071709036827087</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9991545677185059</v>
+        <v>0.9981064796447754</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9997790455818176</v>
+        <v>0.9948807954788208</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9999493360519409</v>
+        <v>0.9972264170646667</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9998157620429993</v>
+        <v>0.9981654286384583</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9999927282333374</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9998993873596191</v>
+        <v>0.9768198132514954</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.999977707862854</v>
+        <v>0.9999631643295288</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9999270439147949</v>
+        <v>0.9998290538787842</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9998443126678467</v>
+        <v>0.6210471391677856</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9255125522613525</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9999902248382568</v>
+        <v>0.998426079750061</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999877214431763</v>
+        <v>0.9999827146530151</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9999932050704956</v>
+        <v>0.998426079750061</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9968158602714539</v>
+        <v>0.9997642636299133</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9998993873596191</v>
+        <v>0.9971388578414917</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9999924898147583</v>
+        <v>0.9988549947738647</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999924898147583</v>
+        <v>0.9983364939689636</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.5575228929519653</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9999690055847168</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9993323683738708</v>
+        <v>0.9419351816177368</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9999662637710571</v>
+        <v>0.9937201738357544</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9996405839920044</v>
+        <v>0.9994915723800659</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9998358488082886</v>
+        <v>0.9999828338623047</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9999841451644897</v>
+        <v>0.999402642250061</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9998059868812561</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9997686743736267</v>
+        <v>0.9996650218963623</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9997619986534119</v>
+        <v>0.9999655485153198</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9999897480010986</v>
+        <v>0.6739505529403687</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9972304701805115</v>
+        <v>0.9997186064720154</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.9924148917198181</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9998528957366943</v>
+        <v>0.9359341263771057</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9999910593032837</v>
+        <v>0.9979950189590454</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.999940037727356</v>
+        <v>0.9999885559082031</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9998985528945923</v>
+        <v>0.8099024295806885</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996041655540466</v>
+        <v>0.9992006421089172</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9998617172241211</v>
+        <v>0.8739122748374939</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9998157620429993</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9999902248382568</v>
+        <v>0.9992006421089172</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999704360961914</v>
+        <v>0.9521869421005249</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9992548823356628</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9994319081306458</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.5073242783546448</v>
+        <v>0.9999854564666748</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9996707439422607</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9999314546585083</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9998847246170044</v>
+        <v>0.9999854564666748</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9984692931175232</v>
+        <v>0.9999866485595703</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9999293088912964</v>
+        <v>0.999796450138092</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9999946355819702</v>
+        <v>0.9984632730484009</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9993451237678528</v>
+        <v>0.9998757839202881</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999973773956299</v>
+        <v>0.9999823570251465</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9909810423851013</v>
+        <v>0.9959217309951782</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9941587448120117</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9997754693031311</v>
+        <v>0.9999771118164062</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6355013847351074</v>
+        <v>0.9999793767929077</v>
       </c>
     </row>
     <row r="187">
@@ -5663,14 +5663,14 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4902612268924713</v>
+        <v>0.9983460903167725</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9987784028053284</v>
+        <v>0.9997765421867371</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9999948740005493</v>
+        <v>0.9998169541358948</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9998810291290283</v>
+        <v>0.9999032020568848</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9996707439422607</v>
+        <v>0.9629159569740295</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9998059868812561</v>
+        <v>0.9999667406082153</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9999890327453613</v>
+        <v>0.9996806383132935</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9554718136787415</v>
+        <v>0.9888706803321838</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9994756579399109</v>
+        <v>0.9942452311515808</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999858140945435</v>
+        <v>0.9998316764831543</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.999947190284729</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9991549253463745</v>
+        <v>0.999889612197876</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9091652035713196</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9999426603317261</v>
+        <v>0.8575314879417419</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9999587535858154</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5420207977294922</v>
+        <v>0.9998661279678345</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9996065497398376</v>
+        <v>0.986148476600647</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9983878135681152</v>
+        <v>0.9980514049530029</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9999867677688599</v>
+        <v>0.9562941193580627</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9998157620429993</v>
+        <v>0.9999644756317139</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.999372661113739</v>
+        <v>0.9958657026290894</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.5111680030822754</v>
+        <v>0.9994662404060364</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.999987006187439</v>
+        <v>0.9881261587142944</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9987260699272156</v>
+        <v>0.9999222755432129</v>
       </c>
     </row>
   </sheetData>
